--- a/results/consolidated/2_user_per_second_stepup.xlsx
+++ b/results/consolidated/2_user_per_second_stepup.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1120" windowWidth="30880" windowHeight="19140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1320" yWindow="1120" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Throughput" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -101,12 +101,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -213,64 +216,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -282,69 +285,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.093</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.064</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.047</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.076</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.051</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.044</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.046</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.079</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.049</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.093</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.054</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.048</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.048</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B47-7D44-A9E0-922A20571DDD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -379,64 +387,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,66 +459,71 @@
                   <c:v>0.193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.195</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.339</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.549</c:v>
+                  <c:v>0.54900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.727</c:v>
+                  <c:v>0.72699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.517</c:v>
+                  <c:v>0.51700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.827</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.308</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.234</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.827</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.424</c:v>
+                  <c:v>0.42399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.526</c:v>
+                  <c:v>0.52600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.433</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.418</c:v>
+                  <c:v>0.41799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.399</c:v>
+                  <c:v>0.39900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.385</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.463</c:v>
+                  <c:v>0.46300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.252</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.896</c:v>
+                  <c:v>0.89600000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B47-7D44-A9E0-922A20571DDD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -545,64 +558,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,16 +630,16 @@
                   <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.081</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.082</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.073</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.062</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.06</c:v>
@@ -635,48 +648,53 @@
                   <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.212</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.162</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.089</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.062</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.064</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.073</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.084</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.086</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.087</c:v>
+                  <c:v>8.6999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.081</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.073</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.091</c:v>
+                  <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B47-7D44-A9E0-922A20571DDD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -727,64 +745,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,69 +814,74 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>179.0</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>239.0</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>269.0</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>299.0</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>329.0</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>359.0</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>389.0</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>419.0</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>449.0</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>479.0</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B47-7D44-A9E0-922A20571DDD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -966,7 +989,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Response Time (ms)</a:t>
+                  <a:t>Average Response Time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1000,6 +1023,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1096,6 +1120,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1225,7 +1250,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1264,7 +1289,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1333,64 +1357,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,7 +1426,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>37.2</c:v>
+                  <c:v>37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>118.867</c:v>
@@ -1411,22 +1435,22 @@
                   <c:v>203.733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>264.933</c:v>
+                  <c:v>264.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>322.4</c:v>
+                  <c:v>322.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>387.0</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>521.2</c:v>
+                  <c:v>521.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>607.933</c:v>
+                  <c:v>607.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>678.133</c:v>
+                  <c:v>678.13300000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>776.8</c:v>
@@ -1435,25 +1459,25 @@
                   <c:v>853.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>925.667</c:v>
+                  <c:v>925.66700000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>975.133</c:v>
+                  <c:v>975.13300000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1028.867</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1149.0</c:v>
+                  <c:v>1149</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1108.333</c:v>
+                  <c:v>1108.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1291.467</c:v>
+                  <c:v>1291.4670000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1339.0</c:v>
+                  <c:v>1339</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1337.4</c:v>
@@ -1465,6 +1489,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A44F-FF4C-9880-62AB11B61754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1499,64 +1528,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,34 +1597,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>33.867</c:v>
+                  <c:v>33.866999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.333</c:v>
+                  <c:v>94.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.467</c:v>
+                  <c:v>130.46700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>165.533</c:v>
+                  <c:v>165.53299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.8</c:v>
+                  <c:v>158.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.0</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>138.733</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>280.533</c:v>
+                  <c:v>280.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>257.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.322</c:v>
+                  <c:v>57.322000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>288.733</c:v>
@@ -1604,25 +1633,25 @@
                   <c:v>499.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>522.667</c:v>
+                  <c:v>522.66700000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>556.7329999999999</c:v>
+                  <c:v>556.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>609.333</c:v>
+                  <c:v>609.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>675.333</c:v>
+                  <c:v>675.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>591.0</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>794.2670000000001</c:v>
+                  <c:v>794.26700000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>728.867</c:v>
+                  <c:v>728.86699999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>516.4</c:v>
@@ -1631,6 +1660,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A44F-FF4C-9880-62AB11B61754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1665,64 +1699,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,13 +1768,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>26.867</c:v>
+                  <c:v>26.867000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.133</c:v>
+                  <c:v>82.132999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134.467</c:v>
+                  <c:v>134.46700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>189.667</c:v>
@@ -1749,28 +1783,28 @@
                   <c:v>247.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>299.933</c:v>
+                  <c:v>299.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>311.533</c:v>
+                  <c:v>311.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>304.733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>426.667</c:v>
+                  <c:v>426.66699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>490.533</c:v>
+                  <c:v>490.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>570.7329999999999</c:v>
+                  <c:v>570.73299999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>614.2670000000001</c:v>
+                  <c:v>614.26700000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>630.8</c:v>
+                  <c:v>630.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>711.8</c:v>
@@ -1779,24 +1813,29 @@
                   <c:v>751.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>799.067</c:v>
+                  <c:v>799.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>829.933</c:v>
+                  <c:v>829.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>879.467</c:v>
+                  <c:v>879.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>872.933</c:v>
+                  <c:v>872.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>846.333</c:v>
+                  <c:v>846.33299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A44F-FF4C-9880-62AB11B61754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1847,64 +1886,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,69 +1955,74 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>29.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.0</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>179.0</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.0</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>239.0</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>269.0</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>299.0</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>329.0</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>359.0</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>389.0</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>419.0</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>449.0</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>479.0</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>500.0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A44F-FF4C-9880-62AB11B61754}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2091,7 +2135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2121,6 +2164,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2188,7 +2232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2218,6 +2261,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2280,7 +2324,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3476,7 +3519,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3511,7 +3560,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3796,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4203,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/results/consolidated/2_user_per_second_stepup.xlsx
+++ b/results/consolidated/2_user_per_second_stepup.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrandall/Code/serverlessJsScalingComparison/results/consolidated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\serverlessJsScalingComparison\results\consolidated\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>AWS Lambda</t>
-  </si>
-  <si>
-    <t>Azure Functions</t>
   </si>
   <si>
     <t>Google Cloud Functions</t>
@@ -49,6 +46,15 @@
   </si>
   <si>
     <t>Requests per Second</t>
+  </si>
+  <si>
+    <t>Azure Functions (Dec 17)</t>
+  </si>
+  <si>
+    <t>Azure Functions (Mar 18)</t>
+  </si>
+  <si>
+    <t>Azure Functions (Jan 18)</t>
   </si>
 </sst>
 </file>
@@ -355,177 +361,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Performance!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Performance!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222224E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6805555555555562E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0416666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5625000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7361111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9097222222222224E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2569444444444442E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4305555555555552E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6041666666666661E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.777777777777777E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9513888888888879E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1249999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2986111111111098E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4722222222222207E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Performance!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.193</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.308</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.827</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.42399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.52600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.433</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.41799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.39900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.46300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.252</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.89600000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8B47-7D44-A9E0-922A20571DDD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -696,6 +531,177 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-67BF-4F05-8BB5-150FAFAE32A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -708,6 +714,201 @@
         <c:smooth val="0"/>
         <c:axId val="1363450800"/>
         <c:axId val="1363453120"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Azure Functions (Dec 17)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$D$3:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0.193</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.19500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.33900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.54900000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.72699999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.51700000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.82699999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.308</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.23400000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.827</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.42399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.52600000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.433</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.41799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.39900000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.38500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.46300000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.252</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.89600000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8B47-7D44-A9E0-922A20571DDD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1284,6 +1485,1255 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Azure Functions - January</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 18 vs March 18 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Dec 17)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.827</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-310B-407E-8542-3A4DBCA31BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-310B-407E-8542-3A4DBCA31BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1363450800"/>
+        <c:axId val="1363453120"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>User Load</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$B$3:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>179</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>239</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>299</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>329</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>359</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>389</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>419</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>449</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>479</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-310B-407E-8542-3A4DBCA31BAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AWS Lambda</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$C$3:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>9.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.7E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.5999999999999998E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.0999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.14000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.0999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.2999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.0999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.1000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.2999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4.3999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.5999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.9000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>4.9000000000000002E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>9.2999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>5.3999999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4.8000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4.4999999999999998E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-310B-407E-8542-3A4DBCA31BAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Google Cloud Functions</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Performance!$E$3:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>0.127</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.1000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.2000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.2999999999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.06</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.107</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.21199999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.16200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.8999999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.2E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.107</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.2999999999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8.4000000000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.5999999999999993E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>8.6999999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>8.1000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>7.2999999999999995E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>9.0999999999999998E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-310B-407E-8542-3A4DBCA31BAB}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1363450800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363453120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363453120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Response Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363450800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Throughput</a:t>
             </a:r>
           </a:p>
@@ -1496,177 +2946,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Throughput!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Throughput!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222224E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6805555555555562E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0416666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5625000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7361111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9097222222222224E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2569444444444442E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4305555555555552E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6041666666666661E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.777777777777777E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9513888888888879E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1249999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2986111111111098E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4722222222222207E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Throughput!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>33.866999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94.332999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130.46700000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165.53299999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>158.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>138.733</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>280.53300000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>257.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.322000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>288.733</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>499.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>522.66700000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>556.73299999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>609.33299999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>675.33299999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>794.26700000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>728.86699999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>516.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A44F-FF4C-9880-62AB11B61754}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
@@ -1837,6 +3116,177 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.867000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>409.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>468.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>572.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>561.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>625.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>679.26700000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>758.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>818.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>868.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>858.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>816.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>838.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>778.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DE9-4B9F-98A2-474402F6F18F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1849,6 +3299,201 @@
         <c:smooth val="0"/>
         <c:axId val="1363496928"/>
         <c:axId val="1363499248"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Azure Functions (Jan 18)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$D$3:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>33.866999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>94.332999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>130.46700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>165.53299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>158.80000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>138.733</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>280.53300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>257.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>57.322000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>288.733</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>499.8</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>522.66700000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>556.73299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>609.33299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>675.33299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>591</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>794.26700000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>728.86699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>516.4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A44F-FF4C-9880-62AB11B61754}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2036,6 +3681,1389 @@
         <c:smooth val="0"/>
         <c:axId val="1363506032"/>
         <c:axId val="1363502640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1363496928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363499248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1363499248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Requests per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363496928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1363502640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>User Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1363506032"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1363506032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1363502640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput - January 18 vs March 18</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Jan 18)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>33.866999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.46700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.53299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>257.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.322000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>288.733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>499.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>522.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>556.73299999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>609.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>675.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>794.26700000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>728.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>516.4</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6C22-4B8B-9094-37E369BFB8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.867000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>409.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>468.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>524.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>572.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>561.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>625.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>679.26700000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>758.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>818.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>868.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>858.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>816.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>838.86699999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>778.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C22-4B8B-9094-37E369BFB8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1363496928"/>
+        <c:axId val="1363499248"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$C$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AWS Lambda</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$C$3:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>37.200000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>118.867</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>203.733</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>264.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>322.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>387</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>521.20000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>607.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>678.13300000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>776.8</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>853.8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>925.66700000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>975.13300000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1028.867</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1149</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1108.3330000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1291.4670000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1339</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1337.4</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1318.133</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6C22-4B8B-9094-37E369BFB8FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$E$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Google Cloud Functions</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$E$3:$E$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>26.867000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>82.132999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>134.46700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>189.667</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>247.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>299.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>311.53300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>304.733</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>426.66699999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>490.53300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>570.73299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>614.26700000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>630.79999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>711.8</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>751.8</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>799.06700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>829.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>879.46699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>872.93299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>846.33299999999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6C22-4B8B-9094-37E369BFB8FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1363506032"/>
+        <c:axId val="1363502640"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>User Load</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1.7361111111111112E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.4722222222222224E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.2083333333333333E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.9444444444444447E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.6805555555555562E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0416666666666667E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2152777777777778E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3888888888888889E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5625000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.7361111111111112E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.9097222222222224E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.0833333333333333E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2569444444444442E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.4305555555555552E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.6041666666666661E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.777777777777777E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.9513888888888879E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.1249999999999989E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.2986111111111098E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.4722222222222207E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Throughput!$B$3:$B$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>179</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>239</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>299</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>329</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>359</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>389</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>419</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>449</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>479</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6C22-4B8B-9094-37E369BFB8FA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1363496928"/>
@@ -2470,6 +5498,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2987,6 +6095,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3540,6 +7680,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F50EA9E-6288-4E17-A7B1-4B3B21CAC7B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3578,6 +7756,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA96161-65EF-4E57-8A17-46C6715F67AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3849,44 +8065,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -3902,8 +8121,11 @@
       <c r="E3">
         <v>0.127</v>
       </c>
+      <c r="F3">
+        <v>0.33100000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -3920,8 +8142,11 @@
       <c r="E4">
         <v>8.1000000000000003E-2</v>
       </c>
+      <c r="F4">
+        <v>0.19500000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -3938,8 +8163,11 @@
       <c r="E5">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="F5">
+        <v>0.17100000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -3956,8 +8184,11 @@
       <c r="E6">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="F6">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -3974,8 +8205,11 @@
       <c r="E7">
         <v>6.2E-2</v>
       </c>
+      <c r="F7">
+        <v>0.17499999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -3992,8 +8226,11 @@
       <c r="E8">
         <v>0.06</v>
       </c>
+      <c r="F8">
+        <v>0.17299999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -4010,8 +8247,11 @@
       <c r="E9">
         <v>0.107</v>
       </c>
+      <c r="F9">
+        <v>0.18099999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -4028,8 +8268,11 @@
       <c r="E10">
         <v>0.21199999999999999</v>
       </c>
+      <c r="F10">
+        <v>0.193</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -4046,8 +8289,11 @@
       <c r="E11">
         <v>0.16200000000000001</v>
       </c>
+      <c r="F11">
+        <v>0.193</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -4064,8 +8310,11 @@
       <c r="E12">
         <v>8.8999999999999996E-2</v>
       </c>
+      <c r="F12">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -4082,8 +8331,11 @@
       <c r="E13">
         <v>6.2E-2</v>
       </c>
+      <c r="F13">
+        <v>0.223</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -4100,8 +8352,11 @@
       <c r="E14">
         <v>6.4000000000000001E-2</v>
       </c>
+      <c r="F14">
+        <v>0.28299999999999997</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -4118,8 +8373,11 @@
       <c r="E15">
         <v>0.107</v>
       </c>
+      <c r="F15">
+        <v>0.22600000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -4136,8 +8394,11 @@
       <c r="E16">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="F16">
+        <v>0.24099999999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -4154,8 +8415,11 @@
       <c r="E17">
         <v>8.4000000000000005E-2</v>
       </c>
+      <c r="F17">
+        <v>0.23699999999999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -4172,8 +8436,11 @@
       <c r="E18">
         <v>8.5999999999999993E-2</v>
       </c>
+      <c r="F18">
+        <v>0.23200000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -4190,8 +8457,11 @@
       <c r="E19">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="F19">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -4208,8 +8478,11 @@
       <c r="E20">
         <v>8.1000000000000003E-2</v>
       </c>
+      <c r="F20">
+        <v>0.28399999999999997</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -4226,8 +8499,11 @@
       <c r="E21">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="F21">
+        <v>0.29499999999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -4243,6 +8519,9 @@
       </c>
       <c r="E22">
         <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.29899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4256,44 +8535,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -4309,8 +8591,11 @@
       <c r="E3">
         <v>26.867000000000001</v>
       </c>
+      <c r="F3">
+        <v>26.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -4327,8 +8612,11 @@
       <c r="E4">
         <v>82.132999999999996</v>
       </c>
+      <c r="F4">
+        <v>95.867000000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -4345,8 +8633,11 @@
       <c r="E5">
         <v>134.46700000000001</v>
       </c>
+      <c r="F5">
+        <v>166</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -4363,8 +8654,11 @@
       <c r="E6">
         <v>189.667</v>
       </c>
+      <c r="F6">
+        <v>227.667</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -4381,8 +8675,11 @@
       <c r="E7">
         <v>247.4</v>
       </c>
+      <c r="F7">
+        <v>295</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -4399,8 +8696,11 @@
       <c r="E8">
         <v>299.93299999999999</v>
       </c>
+      <c r="F8">
+        <v>360</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -4417,8 +8717,11 @@
       <c r="E9">
         <v>311.53300000000002</v>
       </c>
+      <c r="F9">
+        <v>409.33300000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -4435,8 +8738,11 @@
       <c r="E10">
         <v>304.733</v>
       </c>
+      <c r="F10">
+        <v>468.06700000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -4453,8 +8759,11 @@
       <c r="E11">
         <v>426.66699999999997</v>
       </c>
+      <c r="F11">
+        <v>524.53300000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -4471,8 +8780,11 @@
       <c r="E12">
         <v>490.53300000000002</v>
       </c>
+      <c r="F12">
+        <v>572.20000000000005</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -4489,8 +8801,11 @@
       <c r="E13">
         <v>570.73299999999995</v>
       </c>
+      <c r="F13">
+        <v>561.79999999999995</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -4507,8 +8822,11 @@
       <c r="E14">
         <v>614.26700000000005</v>
       </c>
+      <c r="F14">
+        <v>625.93299999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -4525,8 +8843,11 @@
       <c r="E15">
         <v>630.79999999999995</v>
       </c>
+      <c r="F15">
+        <v>679.26700000000005</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -4543,8 +8864,11 @@
       <c r="E16">
         <v>711.8</v>
       </c>
+      <c r="F16">
+        <v>758.66700000000003</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -4561,8 +8885,11 @@
       <c r="E17">
         <v>751.8</v>
       </c>
+      <c r="F17">
+        <v>818.6</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -4579,8 +8906,11 @@
       <c r="E18">
         <v>799.06700000000001</v>
       </c>
+      <c r="F18">
+        <v>868.46699999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -4597,8 +8927,11 @@
       <c r="E19">
         <v>829.93299999999999</v>
       </c>
+      <c r="F19">
+        <v>858.2</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -4615,8 +8948,11 @@
       <c r="E20">
         <v>879.46699999999998</v>
       </c>
+      <c r="F20">
+        <v>816.33299999999997</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -4633,8 +8969,11 @@
       <c r="E21">
         <v>872.93299999999999</v>
       </c>
+      <c r="F21">
+        <v>838.86699999999996</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -4650,6 +8989,9 @@
       </c>
       <c r="E22">
         <v>846.33299999999997</v>
+      </c>
+      <c r="F22">
+        <v>778.8</v>
       </c>
     </row>
   </sheetData>

--- a/results/consolidated/2_user_per_second_stepup.xlsx
+++ b/results/consolidated/2_user_per_second_stepup.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wip\serverlessJsScalingComparison\results\consolidated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrandall/Code/serverlessJsScalingComparison/results/consolidated/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73390C7-2AAA-2349-B863-D8B377AF2530}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1120" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="1120" windowWidth="30880" windowHeight="19140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Throughput" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Performance!$A$3:$A$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Performance!$B$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Performance!$F$3:$F$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Performance!$B$3:$B$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Performance!$C$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Performance!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Performance!$D$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Performance!$D$3:$D$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Performance!$E$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Performance!$E$3:$E$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Performance!$F$2</definedName>
+  </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Time</t>
   </si>
@@ -48,9 +62,6 @@
     <t>Requests per Second</t>
   </si>
   <si>
-    <t>Azure Functions (Dec 17)</t>
-  </si>
-  <si>
     <t>Azure Functions (Mar 18)</t>
   </si>
   <si>
@@ -60,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -732,7 +743,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Azure Functions (Dec 17)</c:v>
+                        <c:v>Azure Functions (Jan 18)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1485,7 +1496,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Azure Functions - January</a:t>
+              <a:t>Azure Functions - Performance - January</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1539,7 +1550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Azure Functions (Dec 17)</c:v>
+                  <c:v>Azure Functions (Jan 18)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1880,6 +1891,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1363450800"/>
         <c:axId val="1363453120"/>
@@ -1887,21 +1899,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
-                <c:idx val="0"/>
+                <c:idx val="1"/>
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Performance!$B$2</c15:sqref>
+                          <c15:sqref>Performance!$C$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>User Load</c:v>
+                        <c:v>AWS Lambda</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1909,7 +1921,7 @@
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -1998,197 +2010,6 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Performance!$B$3:$B$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>119</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>149</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>179</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>209</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>299</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>359</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>389</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>419</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>449</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>479</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-310B-407E-8542-3A4DBCA31BAB}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Performance!$C$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>AWS Lambda</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>h:mm:ss</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>1.7361111111111112E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.4722222222222224E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.2083333333333333E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6.9444444444444447E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8.6805555555555562E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.0416666666666667E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.2152777777777778E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1.3888888888888889E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1.5625000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1.7361111111111112E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.9097222222222224E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.0833333333333333E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.2569444444444442E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.4305555555555552E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.6041666666666661E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.777777777777777E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2.9513888888888879E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>3.1249999999999989E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3.2986111111111098E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>3.4722222222222207E-3</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
                           <c15:sqref>Performance!$C$3:$C$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
@@ -2273,7 +2094,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Performance!$E$2</c15:sqref>
@@ -2302,7 +2123,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Performance!$A$3:$A$22</c15:sqref>
@@ -2377,7 +2198,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Performance!$E$3:$E$22</c15:sqref>
@@ -2451,7 +2272,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-310B-407E-8542-3A4DBCA31BAB}"/>
                   </c:ext>
@@ -2460,6 +2281,196 @@
             </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-310B-407E-8542-3A4DBCA31BAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="609083599"/>
+        <c:axId val="482177855"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1363450800"/>
@@ -2623,6 +2634,65 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="482177855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609083599"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="609083599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="482177855"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4070,7 +4140,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Throughput - January 18 vs March 18</a:t>
+              <a:t>Azure Functions - Throughput - January 18 vs March 18</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4472,7 +4542,7 @@
             <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
@@ -4666,7 +4736,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Throughput!$E$2</c15:sqref>
@@ -4695,7 +4765,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
@@ -4770,7 +4840,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Throughput!$E$3:$E$22</c15:sqref>
@@ -4844,7 +4914,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-6C22-4B8B-9094-37E369BFB8FA}"/>
                   </c:ext>
@@ -4857,6 +4927,180 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C22-4B8B-9094-37E369BFB8FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4869,201 +5113,7 @@
         <c:smooth val="0"/>
         <c:axId val="1363506032"/>
         <c:axId val="1363502640"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Throughput!$B$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>User Load</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Throughput!$A$3:$A$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>h:mm:ss</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>1.7361111111111112E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3.4722222222222224E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>5.2083333333333333E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>6.9444444444444447E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>8.6805555555555562E-4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.0416666666666667E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.2152777777777778E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1.3888888888888889E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1.5625000000000001E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1.7361111111111112E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.9097222222222224E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>2.0833333333333333E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>2.2569444444444442E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.4305555555555552E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>2.6041666666666661E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>2.777777777777777E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>2.9513888888888879E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>3.1249999999999989E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>3.2986111111111098E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>3.4722222222222207E-3</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Throughput!$B$3:$B$22</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="20"/>
-                      <c:pt idx="0">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>119</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>149</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>179</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>209</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>299</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>359</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>389</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>419</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>449</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>479</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>500</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-6C22-4B8B-9094-37E369BFB8FA}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1363496928"/>
@@ -8064,28 +8114,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8096,16 +8146,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -8125,7 +8175,7 @@
         <v>0.33100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -8146,7 +8196,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -8167,7 +8217,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -8188,7 +8238,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -8209,7 +8259,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -8230,7 +8280,7 @@
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -8251,7 +8301,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -8272,7 +8322,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -8293,7 +8343,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -8314,7 +8364,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -8335,7 +8385,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -8356,7 +8406,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -8377,7 +8427,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -8398,7 +8448,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -8419,7 +8469,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -8440,7 +8490,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -8461,7 +8511,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -8482,7 +8532,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -8503,7 +8553,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -8534,28 +8584,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8566,16 +8616,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -8595,7 +8645,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -8616,7 +8666,7 @@
         <v>95.867000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -8637,7 +8687,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -8658,7 +8708,7 @@
         <v>227.667</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -8679,7 +8729,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -8700,7 +8750,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -8721,7 +8771,7 @@
         <v>409.33300000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -8742,7 +8792,7 @@
         <v>468.06700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -8763,7 +8813,7 @@
         <v>524.53300000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -8784,7 +8834,7 @@
         <v>572.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -8805,7 +8855,7 @@
         <v>561.79999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -8826,7 +8876,7 @@
         <v>625.93299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -8847,7 +8897,7 @@
         <v>679.26700000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -8868,7 +8918,7 @@
         <v>758.66700000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -8889,7 +8939,7 @@
         <v>818.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -8910,7 +8960,7 @@
         <v>868.46699999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -8931,7 +8981,7 @@
         <v>858.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -8952,7 +9002,7 @@
         <v>816.33299999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -8973,7 +9023,7 @@
         <v>838.86699999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
